--- a/output/fit_clients/fit_round_399.xlsx
+++ b/output/fit_clients/fit_round_399.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329087712.877036</v>
+        <v>1853745517.479072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1020915941987909</v>
+        <v>0.1140578915952478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03807051761304684</v>
+        <v>0.04447664191962643</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1164543896.347484</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1975497411.659228</v>
+        <v>2130668899.209176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1668918816390813</v>
+        <v>0.15426121837394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04736869678158039</v>
+        <v>0.03879656773768259</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>987748742.1036495</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3375790177.661769</v>
+        <v>4184554656.938433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1606078093053378</v>
+        <v>0.1051018950483841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02733594604208885</v>
+        <v>0.03302343919764617</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>144</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1687895058.799682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,29 +564,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3036963615.821417</v>
+        <v>2748842352.169908</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07193832329708341</v>
+        <v>0.0854723746377363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04995047843817065</v>
+        <v>0.03499805984288995</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>148</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1518481875.35158</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2350598473.344283</v>
+        <v>1922910436.976923</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1171653474310168</v>
+        <v>0.1107945869244853</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05418131821243238</v>
+        <v>0.05606341461844529</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1175299228.337325</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3143173913.455821</v>
+        <v>2180852447.606259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09344167703129559</v>
+        <v>0.09086516928175452</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03271947679959338</v>
+        <v>0.04363538977064513</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1571586907.908197</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3352389688.080092</v>
+        <v>2485086396.736101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1423228634036086</v>
+        <v>0.1540919487706283</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03329480064459513</v>
+        <v>0.02457091667387021</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>127</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1676194937.592337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2156832027.242282</v>
+        <v>2149685938.540645</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1349532068593576</v>
+        <v>0.1909895116842245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03303008135345788</v>
+        <v>0.02646233603960829</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1078416018.488236</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4416850136.086754</v>
+        <v>3912459261.244031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1758104479841767</v>
+        <v>0.1536257690839595</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04808300897619534</v>
+        <v>0.0410653581380786</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>167</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2208425122.206827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3063642813.9643</v>
+        <v>2626671363.686308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1633409625804061</v>
+        <v>0.1225646391741454</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03868599816006689</v>
+        <v>0.03660499234297519</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>165</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1531821354.421227</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2395291035.997658</v>
+        <v>2337588047.136291</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1415377617917192</v>
+        <v>0.1979261411018157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04069944929667824</v>
+        <v>0.05274313775535391</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>135</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1197645480.634875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5141949087.648221</v>
+        <v>5088051396.006591</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08788995027240554</v>
+        <v>0.09866508161370814</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03073791516034149</v>
+        <v>0.02134024436166386</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>134</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2570974540.76421</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2807264257.485848</v>
+        <v>3787372832.616955</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1425799646067313</v>
+        <v>0.1631059809347647</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04367904417951355</v>
+        <v>0.03543924837596742</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1403632177.155189</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1485664383.415094</v>
+        <v>1364762409.030395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09740738425078342</v>
+        <v>0.09199746576976504</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03705113110998468</v>
+        <v>0.03295854531645837</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>742832273.9689269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2179464938.313019</v>
+        <v>2189299681.555861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.102448114831594</v>
+        <v>0.09984433740895032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04253334318106627</v>
+        <v>0.03272536995431964</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1089732528.618107</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4309146494.418673</v>
+        <v>5188332962.003883</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1634710252989091</v>
+        <v>0.1632353436466565</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04806537977468429</v>
+        <v>0.03748138763078116</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2154573266.498631</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2777986330.803331</v>
+        <v>3481869194.599852</v>
       </c>
       <c r="F18" t="n">
-        <v>0.167200505615499</v>
+        <v>0.177031483634824</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02986388011964692</v>
+        <v>0.03441483542207352</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1388993211.711301</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1319548353.356728</v>
+        <v>1172156987.660985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1396327612683972</v>
+        <v>0.1542059971998328</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01907966906489257</v>
+        <v>0.02027952113641555</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>659774283.6982445</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2050443163.008854</v>
+        <v>2066627069.256325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1427203317867043</v>
+        <v>0.1207479496442891</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0300289855943939</v>
+        <v>0.03054601699310344</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1025221602.491857</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2691697010.127728</v>
+        <v>2600129165.292375</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07553098354151255</v>
+        <v>0.09012086303761975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03243271242429644</v>
+        <v>0.04419221400570546</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1345848474.868389</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2762518840.965387</v>
+        <v>4039986660.088163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1178173235419058</v>
+        <v>0.1021765161077932</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05610059001539577</v>
+        <v>0.03720350121284931</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1381259496.245771</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1459390007.813826</v>
+        <v>1296477820.486836</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1385440415341746</v>
+        <v>0.1809215806390746</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03720556546698493</v>
+        <v>0.03862124545978551</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>729694996.7072542</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3756016223.061843</v>
+        <v>2825386864.46983</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1468765941573776</v>
+        <v>0.1106107845592795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02478538086999869</v>
+        <v>0.03442551460648647</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>116</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1878008095.950513</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1470468231.687844</v>
+        <v>1170887197.100377</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118229647124487</v>
+        <v>0.1139023267499681</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03058078760568885</v>
+        <v>0.02624307227117444</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>735234071.5919471</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1306246489.054913</v>
+        <v>1311605743.684221</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1093929586359059</v>
+        <v>0.08149859612229125</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02382720536700625</v>
+        <v>0.02594991672640216</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>653123291.5851004</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3770623077.53689</v>
+        <v>3521189631.258614</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1387604364926563</v>
+        <v>0.13169665730483</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02639006669289937</v>
+        <v>0.02145608633127781</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1885311560.307767</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3723880723.240699</v>
+        <v>2970187688.629179</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1516187545541205</v>
+        <v>0.1259321870990133</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03786740803364129</v>
+        <v>0.03615671833408995</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>129</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1861940435.681103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3987678904.511913</v>
+        <v>5427995381.164709</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1237104448808972</v>
+        <v>0.1305189691423372</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02922700146127174</v>
+        <v>0.03739774481630539</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>176</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1993839470.020352</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2158672036.312613</v>
+        <v>1575699695.18221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08451420363303359</v>
+        <v>0.128395708159896</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03502740008963486</v>
+        <v>0.03715177937307757</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1079336073.676512</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1327392476.186727</v>
+        <v>963695804.9901615</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09005628199994144</v>
+        <v>0.0875631596858239</v>
       </c>
       <c r="G31" t="n">
-        <v>0.043444723795927</v>
+        <v>0.05225092491867551</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>663696159.5925944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1381488416.846625</v>
+        <v>1866125727.868337</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1103805022821098</v>
+        <v>0.117754372946834</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02597075965524227</v>
+        <v>0.03018196668672537</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>690744252.2532077</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2991515355.204688</v>
+        <v>2049279911.303179</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1309686341474537</v>
+        <v>0.1878765895209997</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04887551672166796</v>
+        <v>0.05280869549183908</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1495757673.949705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1405789773.223462</v>
+        <v>1348492732.529841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07479991840092801</v>
+        <v>0.09957281044203901</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02755749650146658</v>
+        <v>0.02082946618813219</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>702894857.9035465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1297406327.04455</v>
+        <v>873729630.0048172</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07587068240535491</v>
+        <v>0.09938174351318711</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0306165978173123</v>
+        <v>0.03328071660946412</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>648703116.8940834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2544279474.536664</v>
+        <v>1984259522.95499</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1243589399130426</v>
+        <v>0.164058695600633</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02100900149441693</v>
+        <v>0.02425452794068783</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1272139755.723354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2739641800.752051</v>
+        <v>2447127627.410274</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08586564930338531</v>
+        <v>0.0743365727851015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03137839188465291</v>
+        <v>0.03911098995446762</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>106</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1369821029.447087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1442959440.41309</v>
+        <v>1431944955.473987</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08250612008717691</v>
+        <v>0.08248199294964539</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03454028772964234</v>
+        <v>0.03268401274935549</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>721479777.5343131</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1417977272.390163</v>
+        <v>2170756555.322727</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1502288664153876</v>
+        <v>0.1498169899063538</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03244746146461566</v>
+        <v>0.03224683191698031</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>708988719.0879924</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1490562501.300697</v>
+        <v>1278109836.49252</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1185576200308364</v>
+        <v>0.1172955286975431</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06034349548188239</v>
+        <v>0.04267710057563556</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>745281219.2325662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2603094106.678013</v>
+        <v>2598304877.494346</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1296656208090511</v>
+        <v>0.1604188431751505</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03802004706390839</v>
+        <v>0.03469898523428033</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>102</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1301547068.586115</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3143854235.535154</v>
+        <v>2972206761.339535</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08860511182136768</v>
+        <v>0.08063951952483446</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04186205838391257</v>
+        <v>0.03775820718168462</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>134</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1571927088.116515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2591858762.956326</v>
+        <v>2207486531.559394</v>
       </c>
       <c r="F43" t="n">
-        <v>0.161943435144631</v>
+        <v>0.1536997843316818</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02278016284918698</v>
+        <v>0.02221393935605588</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>139</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1295929420.923685</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1815293897.284676</v>
+        <v>2012840877.502359</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09530609065661245</v>
+        <v>0.07416337405129941</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02669239888532</v>
+        <v>0.03503356515136676</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>907647018.1498913</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1584462054.967055</v>
+        <v>2352121188.641533</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1367811245631798</v>
+        <v>0.1497544718727598</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03843071787564896</v>
+        <v>0.04651000638070257</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>792230976.4855375</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3493212119.607518</v>
+        <v>5103082220.977288</v>
       </c>
       <c r="F46" t="n">
-        <v>0.176252391852559</v>
+        <v>0.1612031987395711</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05984014653386929</v>
+        <v>0.03714094201681163</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>142</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1746606000.374415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4567014369.661878</v>
+        <v>4932208911.078918</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1248383047890853</v>
+        <v>0.1250294625561866</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05924891822496856</v>
+        <v>0.03997696195887071</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>107</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2283507216.112517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3694402786.774818</v>
+        <v>3489152397.906683</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09673612464526742</v>
+        <v>0.1079243863835029</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03825084034183061</v>
+        <v>0.02535386957523439</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1847201445.520075</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1802761426.725263</v>
+        <v>1456955001.3002</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1429844396427516</v>
+        <v>0.1798414197792116</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03080473673104103</v>
+        <v>0.04089970767437914</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>901380698.3383892</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3841974081.408406</v>
+        <v>3642876679.171412</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1725121274193845</v>
+        <v>0.1144135053454175</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04367684237604633</v>
+        <v>0.03826351541250417</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>136</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1920987040.651629</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1388698658.205203</v>
+        <v>1492980426.578681</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1653385624001112</v>
+        <v>0.1860232699235486</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03593341075531237</v>
+        <v>0.04154528545929458</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>694349350.0908972</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5197595889.29826</v>
+        <v>5236217422.74994</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1132323324405548</v>
+        <v>0.09552177309405324</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05184021144177595</v>
+        <v>0.04004670456670602</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>164</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2598797930.659198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2981214619.970119</v>
+        <v>3159389432.113186</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1807074883642676</v>
+        <v>0.1896955632131253</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03248679279058675</v>
+        <v>0.02752173692504348</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>116</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1490607343.763011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3742180820.753668</v>
+        <v>4578756998.962463</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1143035656417775</v>
+        <v>0.1151549330279253</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03911419324340476</v>
+        <v>0.03908688759148762</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1871090454.216599</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3176776433.883068</v>
+        <v>4538922817.023008</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1724540316383947</v>
+        <v>0.2019132853292586</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02213057314381455</v>
+        <v>0.03037966679717172</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1588388155.514378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1331340778.965748</v>
+        <v>1336318782.265018</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1221673925685002</v>
+        <v>0.1062833045598659</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03812697232493383</v>
+        <v>0.04681550309683805</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>665670456.7604346</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3222507000.666236</v>
+        <v>3710195518.075155</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570775277208017</v>
+        <v>0.1337477088245579</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02521535424125659</v>
+        <v>0.01843708809382797</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>127</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1611253523.434205</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1781610660.433081</v>
+        <v>1896901865.752461</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2007114969890701</v>
+        <v>0.1517532458690873</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03621474094832228</v>
+        <v>0.03972836125059006</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>890805335.6798294</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4165440882.395477</v>
+        <v>4141055328.426949</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1133428699909488</v>
+        <v>0.1045629365594613</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04953308181605952</v>
+        <v>0.04199355717000559</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2082720409.187558</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3555406521.038749</v>
+        <v>3187825308.964605</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2014859739313281</v>
+        <v>0.1319956575558262</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02612482431000938</v>
+        <v>0.02572791810072695</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>124</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1777703389.143484</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2221502164.945081</v>
+        <v>2196379917.720004</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1088534327226072</v>
+        <v>0.1761021152186681</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02461223412312039</v>
+        <v>0.02660857885257097</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>137</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1110751136.367723</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1577784174.716698</v>
+        <v>1450016120.946714</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1255433174916725</v>
+        <v>0.1893732008121567</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03841259518200486</v>
+        <v>0.03045639246845344</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>788892082.070839</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4012256966.506719</v>
+        <v>5038677711.564498</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07629670956319139</v>
+        <v>0.104929564228818</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03958207723660831</v>
+        <v>0.04730994749708235</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>116</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2006128545.085869</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4995636137.03042</v>
+        <v>4682554733.587634</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1914214975583523</v>
+        <v>0.1439259649076317</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02182208092156437</v>
+        <v>0.02387214149905741</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>124</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2497818174.412731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3913163248.532041</v>
+        <v>5208565875.206336</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110199274583531</v>
+        <v>0.173731735637782</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02808573764647344</v>
+        <v>0.02576153036817912</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>143</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1956581648.051956</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5409781601.309882</v>
+        <v>4387508682.664057</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1309626243918308</v>
+        <v>0.1457794458824057</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04429667823252063</v>
+        <v>0.04079758087172502</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>116</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2704890849.823561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3359896843.89272</v>
+        <v>2316799766.431241</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06627151342530481</v>
+        <v>0.09649735014449759</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03564307407640566</v>
+        <v>0.04646154019434015</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>127</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1679948409.755453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4215840763.863627</v>
+        <v>5556380444.167946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1020666861257431</v>
+        <v>0.1401907463159952</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03498375088284013</v>
+        <v>0.04240435289877996</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2107920390.827413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1983032283.229846</v>
+        <v>1982195142.758795</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1723612447558852</v>
+        <v>0.1780873462492169</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03844429051764431</v>
+        <v>0.04738236635093237</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>991516144.4160064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3503353264.08839</v>
+        <v>3035448965.597762</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06455982815867846</v>
+        <v>0.09168031572302211</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03642643441446122</v>
+        <v>0.03923747582993759</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>114</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1751676641.816549</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4376544224.39541</v>
+        <v>5304807865.715094</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1818707391077094</v>
+        <v>0.1639031932000302</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02404488632660058</v>
+        <v>0.02295622465146389</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>145</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2188272171.348671</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2268054811.565337</v>
+        <v>1716914942.752026</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09261463865730205</v>
+        <v>0.1048887121579289</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04922480177622043</v>
+        <v>0.04707410146688246</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1134027308.908573</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2854099443.766921</v>
+        <v>2236950834.359685</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07933167556779065</v>
+        <v>0.07139278842166942</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03665651860146761</v>
+        <v>0.04390785849472975</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>151</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1427049731.2381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2567542961.729074</v>
+        <v>3564050121.440837</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1210932708387958</v>
+        <v>0.1190926040979509</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02524456011959318</v>
+        <v>0.02961478447798972</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>135</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1283771583.686259</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2185892087.863879</v>
+        <v>2108664461.597954</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1107604269785729</v>
+        <v>0.1306243988113825</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03583583631522392</v>
+        <v>0.02315365896558563</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1092945990.704825</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4771972095.542918</v>
+        <v>5060641679.200192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08151107223314594</v>
+        <v>0.08354947448730826</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02316915870629073</v>
+        <v>0.02574629695553406</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2385986064.886365</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2306387468.833724</v>
+        <v>1937739765.478539</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1692207354650311</v>
+        <v>0.153198623387713</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0272208184703164</v>
+        <v>0.02881567576887477</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1153193841.198812</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3250683002.383327</v>
+        <v>4431733147.050705</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1034933410069638</v>
+        <v>0.1054160311804027</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05099870953576999</v>
+        <v>0.04494109541151759</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>138</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1625341520.573908</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1161769176.60096</v>
+        <v>1418863090.728602</v>
       </c>
       <c r="F79" t="n">
-        <v>0.130070041208414</v>
+        <v>0.1738864487206499</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02912402381449209</v>
+        <v>0.02762401755588281</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>580884563.3763884</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5238877000.197508</v>
+        <v>4160852910.406252</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07111989004817992</v>
+        <v>0.09030849125985539</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02493972346587284</v>
+        <v>0.02573434316946345</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2619438561.219416</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4258332320.696599</v>
+        <v>4169865857.75954</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09858033739605471</v>
+        <v>0.09333419844622322</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02938422634609283</v>
+        <v>0.02089782141947845</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2129166133.163245</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3666415653.438689</v>
+        <v>3608607053.755092</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1722154259609203</v>
+        <v>0.2045519238264749</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01913342714870047</v>
+        <v>0.01852008677622165</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>139</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1833207885.102601</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2196487888.817216</v>
+        <v>1504621293.522539</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1453966556865386</v>
+        <v>0.1564431082237708</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03518380846380974</v>
+        <v>0.02971581147613747</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1098243954.191474</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2045337472.376766</v>
+        <v>2249735805.477051</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1060093644132212</v>
+        <v>0.08982342209186236</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05223064314686366</v>
+        <v>0.0430466637960015</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1022668734.542698</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3681561458.494463</v>
+        <v>3484504663.270947</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1575529621898659</v>
+        <v>0.161561618397958</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04534661338347854</v>
+        <v>0.04657682332617889</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>150</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1840780864.658077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2386390839.17419</v>
+        <v>2562163622.911973</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1286505035156766</v>
+        <v>0.1350612106399242</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02445787199788419</v>
+        <v>0.01950554263694781</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1193195500.957855</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1198199214.165617</v>
+        <v>936692240.4820696</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1709520184149459</v>
+        <v>0.1317396903108428</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03817569513782251</v>
+        <v>0.03801529230576265</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>599099662.2379999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3198846444.232769</v>
+        <v>3233364234.721307</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1371710207393838</v>
+        <v>0.1189491744723346</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03857097114902609</v>
+        <v>0.03410359059242568</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>157</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1599423272.242342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3275974721.895761</v>
+        <v>3499554923.728007</v>
       </c>
       <c r="F89" t="n">
-        <v>0.129262519045662</v>
+        <v>0.100614354126051</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03739353003753368</v>
+        <v>0.02625570430008923</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>134</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1637987378.831042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1624532155.462527</v>
+        <v>1700117314.256959</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1159195755457786</v>
+        <v>0.1380411093083935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0359630004038297</v>
+        <v>0.05035653590903806</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>812266079.3017002</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1400021592.095693</v>
+        <v>1297234306.493768</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1644403828076251</v>
+        <v>0.1794011805265524</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0541566534405727</v>
+        <v>0.05514144375478214</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>700010848.3069322</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2149504315.256381</v>
+        <v>1915558551.098707</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1086059061807663</v>
+        <v>0.06751216217165559</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03831491952525301</v>
+        <v>0.03014922701741482</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1074752115.158749</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4929665932.062225</v>
+        <v>4729578035.770138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1273306706565308</v>
+        <v>0.1402429424098595</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04956438668043841</v>
+        <v>0.03894627408262004</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2464832906.555698</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2434484258.944964</v>
+        <v>1968618062.357173</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1286276162624747</v>
+        <v>0.1307090989042962</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03010953148856991</v>
+        <v>0.02638392641948854</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1217242184.399389</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2155356321.396321</v>
+        <v>3150485881.913183</v>
       </c>
       <c r="F95" t="n">
-        <v>0.120308022609463</v>
+        <v>0.1031015400251745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04437717748421778</v>
+        <v>0.04949803795678115</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>97</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1077678221.900862</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1849199070.656461</v>
+        <v>1771626487.556941</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1076267694917458</v>
+        <v>0.136072195568547</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03071148613561015</v>
+        <v>0.03913726108471244</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>924599538.4135638</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5240700681.06972</v>
+        <v>3540781956.901518</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1180084644279212</v>
+        <v>0.12311305245641</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02881971809895833</v>
+        <v>0.0194878759061925</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>127</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2620350496.703882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3537622482.191416</v>
+        <v>3384026229.680899</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1108086802437645</v>
+        <v>0.0820551967496536</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03139134666694912</v>
+        <v>0.0229741063086983</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1768811262.295841</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2322018488.542074</v>
+        <v>2932304178.107817</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1012077097991756</v>
+        <v>0.09544515889061542</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03544318531772145</v>
+        <v>0.02711425710090955</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1161009181.100804</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4657294416.668199</v>
+        <v>4202402412.363266</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1298947649297937</v>
+        <v>0.1741504701061778</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02509548267252149</v>
+        <v>0.01921242129509721</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2328647331.482147</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2623745911.537116</v>
+        <v>2618075456.156363</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1941833468357431</v>
+        <v>0.1484002663718279</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0382778979118675</v>
+        <v>0.03770256337973994</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>162</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1311872995.121425</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_399.xlsx
+++ b/output/fit_clients/fit_round_399.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1853745517.479072</v>
+        <v>2321218887.630744</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1140578915952478</v>
+        <v>0.1116636696350792</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04447664191962643</v>
+        <v>0.040355647376469</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2130668899.209176</v>
+        <v>2517114995.124226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15426121837394</v>
+        <v>0.1114951913264056</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03879656773768259</v>
+        <v>0.04708507079133318</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4184554656.938433</v>
+        <v>4178148973.873825</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1051018950483841</v>
+        <v>0.1058857027451834</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03302343919764617</v>
+        <v>0.03738529148239336</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2748842352.169908</v>
+        <v>3458819561.045088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0854723746377363</v>
+        <v>0.1091783029224516</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03499805984288995</v>
+        <v>0.04843006263482909</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1922910436.976923</v>
+        <v>2530293717.273387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1107945869244853</v>
+        <v>0.1351642180180073</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05606341461844529</v>
+        <v>0.04102239312221754</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2180852447.606259</v>
+        <v>3069257420.52307</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09086516928175452</v>
+        <v>0.06458129560801276</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04363538977064513</v>
+        <v>0.04774019218905459</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2485086396.736101</v>
+        <v>2993261709.275364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1540919487706283</v>
+        <v>0.1506283292038257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02457091667387021</v>
+        <v>0.02525661184761108</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2149685938.540645</v>
+        <v>1673870380.294666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909895116842245</v>
+        <v>0.1369494339664564</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02646233603960829</v>
+        <v>0.03354341640923298</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3912459261.244031</v>
+        <v>5412634550.060761</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1536257690839595</v>
+        <v>0.1690776361015827</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0410653581380786</v>
+        <v>0.04188164637152819</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2626671363.686308</v>
+        <v>3513279210.380414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1225646391741454</v>
+        <v>0.1885008689733014</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03660499234297519</v>
+        <v>0.03437901059096702</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2337588047.136291</v>
+        <v>2206742773.497454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1979261411018157</v>
+        <v>0.1389278164595466</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05274313775535391</v>
+        <v>0.04474187217261838</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5088051396.006591</v>
+        <v>4833305302.195925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09866508161370814</v>
+        <v>0.06953217716610859</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02134024436166386</v>
+        <v>0.02157459664886011</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3787372832.616955</v>
+        <v>2498396352.347588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1631059809347647</v>
+        <v>0.1503422257984267</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03543924837596742</v>
+        <v>0.03369934938909373</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1364762409.030395</v>
+        <v>1739088897.541244</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09199746576976504</v>
+        <v>0.09663833636840237</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03295854531645837</v>
+        <v>0.03469497778224169</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2189299681.555861</v>
+        <v>2197516172.682085</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09984433740895032</v>
+        <v>0.1148937245007501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03272536995431964</v>
+        <v>0.04795544202648554</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5188332962.003883</v>
+        <v>4744591064.226154</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632353436466565</v>
+        <v>0.1315848056252645</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03748138763078116</v>
+        <v>0.05136922744979885</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3481869194.599852</v>
+        <v>2671088148.861575</v>
       </c>
       <c r="F18" t="n">
-        <v>0.177031483634824</v>
+        <v>0.1256464070060657</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03441483542207352</v>
+        <v>0.03105154199824852</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1172156987.660985</v>
+        <v>1262777287.266201</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1542059971998328</v>
+        <v>0.1601042423111729</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02027952113641555</v>
+        <v>0.02154471163143327</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2066627069.256325</v>
+        <v>2464321656.839289</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1207479496442891</v>
+        <v>0.1221314782046245</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03054601699310344</v>
+        <v>0.02640234825331511</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2600129165.292375</v>
+        <v>2403721080.257382</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09012086303761975</v>
+        <v>0.06846279912509318</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04419221400570546</v>
+        <v>0.04205386576804732</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4039986660.088163</v>
+        <v>3150799620.865886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021765161077932</v>
+        <v>0.1400999048204862</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03720350121284931</v>
+        <v>0.04451755352678002</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296477820.486836</v>
+        <v>981359184.8742576</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1809215806390746</v>
+        <v>0.1184569425336101</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03862124545978551</v>
+        <v>0.05060525256564629</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2825386864.46983</v>
+        <v>2504154834.969409</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1106107845592795</v>
+        <v>0.1418331599342112</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03442551460648647</v>
+        <v>0.02674947041802231</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1170887197.100377</v>
+        <v>954818337.2969748</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1139023267499681</v>
+        <v>0.07588542589987221</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02624307227117444</v>
+        <v>0.03002010921751909</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1311605743.684221</v>
+        <v>1199268117.336103</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08149859612229125</v>
+        <v>0.1085779642745058</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02594991672640216</v>
+        <v>0.03080859561169601</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3521189631.258614</v>
+        <v>4125228720.144145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.13169665730483</v>
+        <v>0.1531455935751261</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02145608633127781</v>
+        <v>0.02309237179475312</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2970187688.629179</v>
+        <v>2918854711.671901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1259321870990133</v>
+        <v>0.09440130802476465</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03615671833408995</v>
+        <v>0.04295013137650867</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5427995381.164709</v>
+        <v>4140260411.141908</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1305189691423372</v>
+        <v>0.09611764651145092</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03739774481630539</v>
+        <v>0.02839369191817297</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1575699695.18221</v>
+        <v>2160877474.474815</v>
       </c>
       <c r="F30" t="n">
-        <v>0.128395708159896</v>
+        <v>0.1225222363828667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03715177937307757</v>
+        <v>0.02729100568808502</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>963695804.9901615</v>
+        <v>1029471319.533688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0875631596858239</v>
+        <v>0.09353246108322531</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05225092491867551</v>
+        <v>0.0495204672322098</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1866125727.868337</v>
+        <v>1418190152.565109</v>
       </c>
       <c r="F32" t="n">
-        <v>0.117754372946834</v>
+        <v>0.08610584456107413</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03018196668672537</v>
+        <v>0.03149408180511724</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2049279911.303179</v>
+        <v>2085603886.549016</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1878765895209997</v>
+        <v>0.1787691150830711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05280869549183908</v>
+        <v>0.04417274681235796</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1348492732.529841</v>
+        <v>1300385392.372072</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09957281044203901</v>
+        <v>0.100781032020704</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02082946618813219</v>
+        <v>0.02320085569798889</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>873729630.0048172</v>
+        <v>1311405680.346017</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09938174351318711</v>
+        <v>0.07625906497385691</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03328071660946412</v>
+        <v>0.030034707465795</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1984259522.95499</v>
+        <v>2434827005.157467</v>
       </c>
       <c r="F36" t="n">
-        <v>0.164058695600633</v>
+        <v>0.132899998186777</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02425452794068783</v>
+        <v>0.02157981424830132</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2447127627.410274</v>
+        <v>2839006765.522396</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0743365727851015</v>
+        <v>0.1037852317965097</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03911098995446762</v>
+        <v>0.03940668377337778</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1431944955.473987</v>
+        <v>1941653687.339185</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08248199294964539</v>
+        <v>0.0772145690045114</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03268401274935549</v>
+        <v>0.02438660905800873</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2170756555.322727</v>
+        <v>1347240364.716558</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1498169899063538</v>
+        <v>0.1192363534537667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03224683191698031</v>
+        <v>0.03138539244714211</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1278109836.49252</v>
+        <v>1435931977.334105</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1172955286975431</v>
+        <v>0.1481381724262431</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04267710057563556</v>
+        <v>0.06037366376632628</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2598304877.494346</v>
+        <v>2504912575.646375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1604188431751505</v>
+        <v>0.1327469313682061</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03469898523428033</v>
+        <v>0.04562607323343684</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2972206761.339535</v>
+        <v>3146826425.201055</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08063951952483446</v>
+        <v>0.09064351377643232</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03775820718168462</v>
+        <v>0.03709695904567032</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2207486531.559394</v>
+        <v>3047645929.014963</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1536997843316818</v>
+        <v>0.2035644789435883</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02221393935605588</v>
+        <v>0.0248791546185809</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2012840877.502359</v>
+        <v>2138387133.330065</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07416337405129941</v>
+        <v>0.09019454562840207</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03503356515136676</v>
+        <v>0.03560185950241008</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2352121188.641533</v>
+        <v>1906536857.02214</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1497544718727598</v>
+        <v>0.1339230624059581</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04651000638070257</v>
+        <v>0.04697780591656693</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5103082220.977288</v>
+        <v>4292968405.9162</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1612031987395711</v>
+        <v>0.1174515796046341</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03714094201681163</v>
+        <v>0.04193500657107801</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4932208911.078918</v>
+        <v>3561760369.155632</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1250294625561866</v>
+        <v>0.1451679134541728</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03997696195887071</v>
+        <v>0.05843341150843686</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3489152397.906683</v>
+        <v>3283762414.981761</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1079243863835029</v>
+        <v>0.07883896468952285</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02535386957523439</v>
+        <v>0.0246200914886292</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1456955001.3002</v>
+        <v>1271493708.308704</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1798414197792116</v>
+        <v>0.1676520062606284</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04089970767437914</v>
+        <v>0.04066676595456291</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3642876679.171412</v>
+        <v>4090664716.058879</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1144135053454175</v>
+        <v>0.1300752293904337</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03826351541250417</v>
+        <v>0.04985731104578511</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1492980426.578681</v>
+        <v>1436522762.224387</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1860232699235486</v>
+        <v>0.1303690982869275</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04154528545929458</v>
+        <v>0.04491310419848815</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5236217422.74994</v>
+        <v>3675541986.133326</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09552177309405324</v>
+        <v>0.08931084728693715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04004670456670602</v>
+        <v>0.0519382596402251</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3159389432.113186</v>
+        <v>2956449406.605934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1896955632131253</v>
+        <v>0.1869717011786907</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02752173692504348</v>
+        <v>0.0244755592546451</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4578756998.962463</v>
+        <v>4697331817.912786</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1151549330279253</v>
+        <v>0.1299120477509628</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03908688759148762</v>
+        <v>0.03646759844566899</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4538922817.023008</v>
+        <v>3339064757.135502</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2019132853292586</v>
+        <v>0.1904593421776332</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03037966679717172</v>
+        <v>0.02782215591119688</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1336318782.265018</v>
+        <v>1659764564.531894</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1062833045598659</v>
+        <v>0.107545997964986</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04681550309683805</v>
+        <v>0.04490501002850177</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3710195518.075155</v>
+        <v>3271351675.446039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337477088245579</v>
+        <v>0.1557722452698493</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01843708809382797</v>
+        <v>0.02511620293357197</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1896901865.752461</v>
+        <v>1552958263.743698</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1517532458690873</v>
+        <v>0.1307884353087371</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03972836125059006</v>
+        <v>0.03918985673616559</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4141055328.426949</v>
+        <v>4390744711.134667</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1045629365594613</v>
+        <v>0.1201176193284001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04199355717000559</v>
+        <v>0.03980582038002</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3187825308.964605</v>
+        <v>2280190920.749295</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1319956575558262</v>
+        <v>0.1927701321596579</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02572791810072695</v>
+        <v>0.02501349143744636</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2196379917.720004</v>
+        <v>2068917369.312564</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1761021152186681</v>
+        <v>0.1354584894930761</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02660857885257097</v>
+        <v>0.02022278567459415</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1450016120.946714</v>
+        <v>1559194590.918216</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1893732008121567</v>
+        <v>0.1302408032360616</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03045639246845344</v>
+        <v>0.04114668660877799</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5038677711.564498</v>
+        <v>3657337110.924198</v>
       </c>
       <c r="F63" t="n">
-        <v>0.104929564228818</v>
+        <v>0.09422514178524645</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04730994749708235</v>
+        <v>0.04736970830954311</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4682554733.587634</v>
+        <v>4653274162.913603</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1439259649076317</v>
+        <v>0.1830739604642348</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02387214149905741</v>
+        <v>0.03027139786239844</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5208565875.206336</v>
+        <v>5043905922.436448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.173731735637782</v>
+        <v>0.1401812133692642</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02576153036817912</v>
+        <v>0.02929042925431159</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4387508682.664057</v>
+        <v>4281379278.382922</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1457794458824057</v>
+        <v>0.1524057970386519</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04079758087172502</v>
+        <v>0.03112224550727141</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2316799766.431241</v>
+        <v>2220952256.232686</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09649735014449759</v>
+        <v>0.077965592360275</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04646154019434015</v>
+        <v>0.03145282505238039</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5556380444.167946</v>
+        <v>4579698718.395675</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1401907463159952</v>
+        <v>0.1591316061477829</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04240435289877996</v>
+        <v>0.03331198436323819</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1982195142.758795</v>
+        <v>1954711567.497254</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1780873462492169</v>
+        <v>0.1263626786541573</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04738236635093237</v>
+        <v>0.04057293480475264</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3035448965.597762</v>
+        <v>3067641858.310421</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09168031572302211</v>
+        <v>0.06234533043675253</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03923747582993759</v>
+        <v>0.03382555718450835</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5304807865.715094</v>
+        <v>5638204142.704735</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1639031932000302</v>
+        <v>0.1405559265781433</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02295622465146389</v>
+        <v>0.02973804359657762</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1716914942.752026</v>
+        <v>2276023624.355317</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1048887121579289</v>
+        <v>0.1058895093492461</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04707410146688246</v>
+        <v>0.05219964596228636</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2236950834.359685</v>
+        <v>2622667975.319206</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07139278842166942</v>
+        <v>0.08963425070675195</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04390785849472975</v>
+        <v>0.03419036895097077</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3564050121.440837</v>
+        <v>3804988531.31851</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1190926040979509</v>
+        <v>0.1242725155672652</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02961478447798972</v>
+        <v>0.02334931221639444</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2108664461.597954</v>
+        <v>2235314039.357947</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1306243988113825</v>
+        <v>0.1016900519222551</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02315365896558563</v>
+        <v>0.02346085025467519</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5060641679.200192</v>
+        <v>4514502549.147798</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08354947448730826</v>
+        <v>0.1175120342731186</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02574629695553406</v>
+        <v>0.03125726741502381</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1937739765.478539</v>
+        <v>1818294640.461294</v>
       </c>
       <c r="F77" t="n">
-        <v>0.153198623387713</v>
+        <v>0.1764730161771847</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02881567576887477</v>
+        <v>0.02219460963622675</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4431733147.050705</v>
+        <v>3145869636.804205</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1054160311804027</v>
+        <v>0.1310248079195836</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04494109541151759</v>
+        <v>0.04370966123031172</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1418863090.728602</v>
+        <v>1262781196.796362</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1738864487206499</v>
+        <v>0.1675028926455232</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02762401755588281</v>
+        <v>0.03049756926061577</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4160852910.406252</v>
+        <v>5627361381.339655</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09030849125985539</v>
+        <v>0.08067535908613563</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02573434316946345</v>
+        <v>0.03614921490381993</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4169865857.75954</v>
+        <v>4090057934.825059</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09333419844622322</v>
+        <v>0.1275727170076904</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02089782141947845</v>
+        <v>0.02346075405081301</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3608607053.755092</v>
+        <v>4527873370.82304</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2045519238264749</v>
+        <v>0.1662418542605284</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01852008677622165</v>
+        <v>0.02142407244615983</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1504621293.522539</v>
+        <v>2073757095.116228</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1564431082237708</v>
+        <v>0.1199928029896482</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02971581147613747</v>
+        <v>0.04021194035674992</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2249735805.477051</v>
+        <v>1625139276.605615</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08982342209186236</v>
+        <v>0.08081907621227523</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0430466637960015</v>
+        <v>0.03545485229418857</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3484504663.270947</v>
+        <v>2417271250.866575</v>
       </c>
       <c r="F85" t="n">
-        <v>0.161561618397958</v>
+        <v>0.1814348025897353</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04657682332617889</v>
+        <v>0.05682297196964231</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2562163622.911973</v>
+        <v>2563755052.666279</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1350612106399242</v>
+        <v>0.1480505317001792</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01950554263694781</v>
+        <v>0.02747984420611085</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>936692240.4820696</v>
+        <v>1131757854.200211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1317396903108428</v>
+        <v>0.114915190498563</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03801529230576265</v>
+        <v>0.03890061231356388</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3233364234.721307</v>
+        <v>2338635098.534569</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1189491744723346</v>
+        <v>0.1416356052473195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03410359059242568</v>
+        <v>0.03825877083087068</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3499554923.728007</v>
+        <v>2637743141.815064</v>
       </c>
       <c r="F89" t="n">
-        <v>0.100614354126051</v>
+        <v>0.1491656462595498</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02625570430008923</v>
+        <v>0.03353381488940118</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1700117314.256959</v>
+        <v>1384300726.905176</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1380411093083935</v>
+        <v>0.106957433275164</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05035653590903806</v>
+        <v>0.03507653070129083</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1297234306.493768</v>
+        <v>1582881767.332361</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1794011805265524</v>
+        <v>0.1709845218941044</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05514144375478214</v>
+        <v>0.04601208401901779</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1915558551.098707</v>
+        <v>2760350906.728369</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06751216217165559</v>
+        <v>0.08175309900012091</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03014922701741482</v>
+        <v>0.04698896124577855</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4729578035.770138</v>
+        <v>5046236831.801821</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1402429424098595</v>
+        <v>0.105541601692284</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03894627408262004</v>
+        <v>0.05228801180022354</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1968618062.357173</v>
+        <v>2335818103.036943</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307090989042962</v>
+        <v>0.1528236008130245</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02638392641948854</v>
+        <v>0.03509903555893525</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3150485881.913183</v>
+        <v>2724278778.263123</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031015400251745</v>
+        <v>0.1286368047948878</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04949803795678115</v>
+        <v>0.05131135959341184</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1771626487.556941</v>
+        <v>2194810904.139247</v>
       </c>
       <c r="F96" t="n">
-        <v>0.136072195568547</v>
+        <v>0.1399223059288004</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03913726108471244</v>
+        <v>0.04634424752739863</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3540781956.901518</v>
+        <v>4303731614.152277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.12311305245641</v>
+        <v>0.169677478733328</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0194878759061925</v>
+        <v>0.02595169543988006</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3384026229.680899</v>
+        <v>2397236360.710487</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0820551967496536</v>
+        <v>0.111818852650037</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0229741063086983</v>
+        <v>0.01980773444754633</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2932304178.107817</v>
+        <v>2593865801.27102</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09544515889061542</v>
+        <v>0.09448223579853414</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02711425710090955</v>
+        <v>0.03099430941345839</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4202402412.363266</v>
+        <v>4347412843.340473</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1741504701061778</v>
+        <v>0.1177287553127913</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01921242129509721</v>
+        <v>0.01989393360349134</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2618075456.156363</v>
+        <v>2779989180.859514</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1484002663718279</v>
+        <v>0.1993695386245604</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03770256337973994</v>
+        <v>0.03937858158603291</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_399.xlsx
+++ b/output/fit_clients/fit_round_399.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2321218887.630744</v>
+        <v>2106354490.228287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1116636696350792</v>
+        <v>0.09722267168946445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.040355647376469</v>
+        <v>0.03544608706428513</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2517114995.124226</v>
+        <v>2616541244.78665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1114951913264056</v>
+        <v>0.1184178498198993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04708507079133318</v>
+        <v>0.03488826815750547</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4178148973.873825</v>
+        <v>4647016435.125879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1058857027451834</v>
+        <v>0.148456848770572</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03738529148239336</v>
+        <v>0.0278002267826352</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>203</v>
+      </c>
+      <c r="J4" t="n">
+        <v>399</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3458819561.045088</v>
+        <v>4104379300.5618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1091783029224516</v>
+        <v>0.06734863888084486</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04843006263482909</v>
+        <v>0.03680529260350895</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>163</v>
+      </c>
+      <c r="J5" t="n">
+        <v>399</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2530293717.273387</v>
+        <v>2027470982.742267</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1351642180180073</v>
+        <v>0.0902985967417937</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04102239312221754</v>
+        <v>0.05649638116072764</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3069257420.52307</v>
+        <v>3066351111.941704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06458129560801276</v>
+        <v>0.08442765585071685</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04774019218905459</v>
+        <v>0.04867924690418571</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2993261709.275364</v>
+        <v>2778518666.642024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1506283292038257</v>
+        <v>0.1605416013217174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02525661184761108</v>
+        <v>0.02503472757028822</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>398</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36.82673313817437</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1673870380.294666</v>
+        <v>1914600804.344418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1369494339664564</v>
+        <v>0.1386301354124299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03354341640923298</v>
+        <v>0.02710293878434213</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5412634550.060761</v>
+        <v>4711150746.346242</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1690776361015827</v>
+        <v>0.1331727349689642</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04188164637152819</v>
+        <v>0.04728370974568617</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>323</v>
+      </c>
+      <c r="J10" t="n">
+        <v>399</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3513279210.380414</v>
+        <v>3319430268.819657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1885008689733014</v>
+        <v>0.147139519294682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03437901059096702</v>
+        <v>0.04172700428808397</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>168</v>
+      </c>
+      <c r="J11" t="n">
+        <v>398</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.01325967465586</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2206742773.497454</v>
+        <v>3321287695.250293</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1389278164595466</v>
+        <v>0.1962364860595609</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04474187217261838</v>
+        <v>0.04362286935044516</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4833305302.195925</v>
+        <v>3837645508.15869</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06953217716610859</v>
+        <v>0.1005190221415099</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02157459664886011</v>
+        <v>0.01911335536021594</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>208</v>
+      </c>
+      <c r="J13" t="n">
+        <v>399</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2498396352.347588</v>
+        <v>3279154222.480167</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1503422257984267</v>
+        <v>0.1667449889143212</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03369934938909373</v>
+        <v>0.04341335294450054</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1739088897.541244</v>
+        <v>1421072853.888446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09663833636840237</v>
+        <v>0.09692708933733749</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03469497778224169</v>
+        <v>0.04795643127527621</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2197516172.682085</v>
+        <v>1907908230.643062</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1148937245007501</v>
+        <v>0.1069813148332522</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04795544202648554</v>
+        <v>0.04886494413553102</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4744591064.226154</v>
+        <v>3893873124.152707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1315848056252645</v>
+        <v>0.1457735450088431</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05136922744979885</v>
+        <v>0.0504516955848411</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>193</v>
+      </c>
+      <c r="J17" t="n">
+        <v>398</v>
+      </c>
+      <c r="K17" t="n">
+        <v>45.92979594995623</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2671088148.861575</v>
+        <v>2679569622.985128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1256464070060657</v>
+        <v>0.1570776472515318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03105154199824852</v>
+        <v>0.02646626348747908</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>98</v>
+      </c>
+      <c r="J18" t="n">
+        <v>398</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35.88101643283659</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1262777287.266201</v>
+        <v>1067895740.044121</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1601042423111729</v>
+        <v>0.1268487708728396</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02154471163143327</v>
+        <v>0.02182702826478819</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2464321656.839289</v>
+        <v>2520327312.979697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1221314782046245</v>
+        <v>0.1503498416805755</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02640234825331511</v>
+        <v>0.02375032552389137</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2403721080.257382</v>
+        <v>2526665785.022402</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06846279912509318</v>
+        <v>0.06379102728862746</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04205386576804732</v>
+        <v>0.03010883303457168</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3150799620.865886</v>
+        <v>3771358163.565619</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1400999048204862</v>
+        <v>0.1342337816446295</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04451755352678002</v>
+        <v>0.05050460742047398</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>110</v>
+      </c>
+      <c r="J22" t="n">
+        <v>399</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>981359184.8742576</v>
+        <v>1240819699.870452</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1184569425336101</v>
+        <v>0.1590852297180228</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05060525256564629</v>
+        <v>0.04838005415282516</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2504154834.969409</v>
+        <v>3068032250.782219</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1418331599342112</v>
+        <v>0.1475361068940232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02674947041802231</v>
+        <v>0.02783546774640395</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>125</v>
+      </c>
+      <c r="J24" t="n">
+        <v>398</v>
+      </c>
+      <c r="K24" t="n">
+        <v>37.08828689686149</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>954818337.2969748</v>
+        <v>1388424621.211842</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07588542589987221</v>
+        <v>0.1026380328020822</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03002010921751909</v>
+        <v>0.02245288813143534</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1199268117.336103</v>
+        <v>1344750901.863211</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1085779642745058</v>
+        <v>0.09568568662779138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03080859561169601</v>
+        <v>0.02915885680915606</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4125228720.144145</v>
+        <v>2940839110.945165</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531455935751261</v>
+        <v>0.1551324304977762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02309237179475312</v>
+        <v>0.0193475547823153</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>167</v>
+      </c>
+      <c r="J27" t="n">
+        <v>398</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.85241717390318</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2918854711.671901</v>
+        <v>3351279987.159328</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09440130802476465</v>
+        <v>0.1137400703546241</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04295013137650867</v>
+        <v>0.04194871844003434</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>97</v>
+      </c>
+      <c r="J28" t="n">
+        <v>397</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4140260411.141908</v>
+        <v>5134823538.501918</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09611764651145092</v>
+        <v>0.1372347610277773</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02839369191817297</v>
+        <v>0.03494528155295225</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>338</v>
+      </c>
+      <c r="J29" t="n">
+        <v>399</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2160877474.474815</v>
+        <v>2209660282.231297</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1225222363828667</v>
+        <v>0.09282586123508751</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02729100568808502</v>
+        <v>0.02499896357078837</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1029471319.533688</v>
+        <v>1000188717.384141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09353246108322531</v>
+        <v>0.09606026317410744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0495204672322098</v>
+        <v>0.0356141198178209</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1418190152.565109</v>
+        <v>1421802708.776452</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08610584456107413</v>
+        <v>0.07766069000506991</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03149408180511724</v>
+        <v>0.03399190864613268</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2085603886.549016</v>
+        <v>2796518302.871573</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1787691150830711</v>
+        <v>0.1564513372090933</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04417274681235796</v>
+        <v>0.05048158241724853</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1300385392.372072</v>
+        <v>1407772553.726526</v>
       </c>
       <c r="F34" t="n">
-        <v>0.100781032020704</v>
+        <v>0.1091615069556644</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02320085569798889</v>
+        <v>0.02072202835161356</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1311405680.346017</v>
+        <v>1009719097.270555</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07625906497385691</v>
+        <v>0.09540747100778377</v>
       </c>
       <c r="G35" t="n">
-        <v>0.030034707465795</v>
+        <v>0.03300805193836465</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2434827005.157467</v>
+        <v>2358760865.093164</v>
       </c>
       <c r="F36" t="n">
-        <v>0.132899998186777</v>
+        <v>0.1135632432084128</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02157981424830132</v>
+        <v>0.0226890919602001</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2839006765.522396</v>
+        <v>2096755004.748277</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1037852317965097</v>
+        <v>0.06878198901431853</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03940668377337778</v>
+        <v>0.03370898835377211</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1941653687.339185</v>
+        <v>2153600979.234567</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0772145690045114</v>
+        <v>0.08996604285414381</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02438660905800873</v>
+        <v>0.03804785051491448</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1347240364.716558</v>
+        <v>1418686804.689371</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1192363534537667</v>
+        <v>0.139324889376882</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03138539244714211</v>
+        <v>0.02689364818033087</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1435931977.334105</v>
+        <v>1531368559.75111</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1481381724262431</v>
+        <v>0.1028847821124627</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06037366376632628</v>
+        <v>0.05960302337970195</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2504912575.646375</v>
+        <v>2097075105.443586</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1327469313682061</v>
+        <v>0.1185315749335661</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04562607323343684</v>
+        <v>0.04632971228833217</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3146826425.201055</v>
+        <v>3647958651.864994</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09064351377643232</v>
+        <v>0.09239764774613617</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03709695904567032</v>
+        <v>0.03628715591372957</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>172</v>
+      </c>
+      <c r="J42" t="n">
+        <v>399</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3047645929.014963</v>
+        <v>3018226061.753736</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2035644789435883</v>
+        <v>0.1937160157406216</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0248791546185809</v>
+        <v>0.01757442542569915</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2138387133.330065</v>
+        <v>1516390335.211901</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09019454562840207</v>
+        <v>0.09891436943481406</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03560185950241008</v>
+        <v>0.03558667847195789</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1906536857.02214</v>
+        <v>1597430508.304153</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1339230624059581</v>
+        <v>0.1253804242092592</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04697780591656693</v>
+        <v>0.03503971182894478</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4292968405.9162</v>
+        <v>4738651585.59658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1174515796046341</v>
+        <v>0.121002511877408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04193500657107801</v>
+        <v>0.0613583776536776</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>239</v>
+      </c>
+      <c r="J46" t="n">
+        <v>399</v>
+      </c>
+      <c r="K46" t="n">
+        <v>47.95377039503187</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3561760369.155632</v>
+        <v>4637908246.803829</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1451679134541728</v>
+        <v>0.1773469752566657</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05843341150843686</v>
+        <v>0.04236857650415934</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>178</v>
+      </c>
+      <c r="J47" t="n">
+        <v>399</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3283762414.981761</v>
+        <v>2919975748.999933</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07883896468952285</v>
+        <v>0.1068957025577084</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0246200914886292</v>
+        <v>0.03905222962676808</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>205</v>
+      </c>
+      <c r="J48" t="n">
+        <v>396</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1271493708.308704</v>
+        <v>1791587123.595648</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1676520062606284</v>
+        <v>0.1834019051227342</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04066676595456291</v>
+        <v>0.03681900894555382</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4090664716.058879</v>
+        <v>2985262651.106489</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1300752293904337</v>
+        <v>0.1207921904520998</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04985731104578511</v>
+        <v>0.04861736062622918</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>136</v>
+      </c>
+      <c r="J50" t="n">
+        <v>398</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39.01430691274259</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1436522762.224387</v>
+        <v>1351330676.25832</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1303690982869275</v>
+        <v>0.1715150728113576</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04491310419848815</v>
+        <v>0.05369132122972805</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3675541986.133326</v>
+        <v>3509759050.793227</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08931084728693715</v>
+        <v>0.09069624282348278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0519382596402251</v>
+        <v>0.04587791514495623</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>232</v>
+      </c>
+      <c r="J52" t="n">
+        <v>398</v>
+      </c>
+      <c r="K52" t="n">
+        <v>43.917558599636</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2956449406.605934</v>
+        <v>3097912469.636851</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1869717011786907</v>
+        <v>0.1435803269263238</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0244755592546451</v>
+        <v>0.02218329238153386</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4697331817.912786</v>
+        <v>4769831800.48567</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1299120477509628</v>
+        <v>0.1350983152095539</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03646759844566899</v>
+        <v>0.03966817807974599</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>213</v>
+      </c>
+      <c r="J54" t="n">
+        <v>399</v>
+      </c>
+      <c r="K54" t="n">
+        <v>50.23275161375204</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3339064757.135502</v>
+        <v>4481580574.067421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1904593421776332</v>
+        <v>0.1454500454514705</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02782215591119688</v>
+        <v>0.03101310409203666</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>192</v>
+      </c>
+      <c r="J55" t="n">
+        <v>399</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1659764564.531894</v>
+        <v>1521063087.814121</v>
       </c>
       <c r="F56" t="n">
-        <v>0.107545997964986</v>
+        <v>0.1493368551041626</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04490501002850177</v>
+        <v>0.04914942293639705</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3271351675.446039</v>
+        <v>4013926382.568072</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1557722452698493</v>
+        <v>0.1705948381565285</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02511620293357197</v>
+        <v>0.02462153477562286</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>170</v>
+      </c>
+      <c r="J57" t="n">
+        <v>399</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1552958263.743698</v>
+        <v>1174188228.477919</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1307884353087371</v>
+        <v>0.145571201356657</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03918985673616559</v>
+        <v>0.0315235471324443</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4390744711.134667</v>
+        <v>5392908440.771113</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1201176193284001</v>
+        <v>0.08689808307089569</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03980582038002</v>
+        <v>0.04012702495183446</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>195</v>
+      </c>
+      <c r="J59" t="n">
+        <v>398</v>
+      </c>
+      <c r="K59" t="n">
+        <v>46.56805569458868</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2280190920.749295</v>
+        <v>3303824491.403326</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1927701321596579</v>
+        <v>0.1662459930249633</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02501349143744636</v>
+        <v>0.03284468790397144</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" t="n">
+        <v>397</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2068917369.312564</v>
+        <v>2333256032.157423</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1354584894930761</v>
+        <v>0.1598646898658555</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02022278567459415</v>
+        <v>0.02668203522943984</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1559194590.918216</v>
+        <v>1848676459.681575</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1302408032360616</v>
+        <v>0.1911153858012114</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04114668660877799</v>
+        <v>0.04219921794582045</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3657337110.924198</v>
+        <v>4016239751.956421</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09422514178524645</v>
+        <v>0.1040497740831736</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04736970830954311</v>
+        <v>0.04773738328775867</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>198</v>
+      </c>
+      <c r="J63" t="n">
+        <v>399</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4653274162.913603</v>
+        <v>4056682680.689941</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1830739604642348</v>
+        <v>0.1770532271428831</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03027139786239844</v>
+        <v>0.03244688757172109</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>199</v>
+      </c>
+      <c r="J64" t="n">
+        <v>399</v>
+      </c>
+      <c r="K64" t="n">
+        <v>47.84942486506411</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5043905922.436448</v>
+        <v>5985467302.412385</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1401812133692642</v>
+        <v>0.140003910994648</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02929042925431159</v>
+        <v>0.02415457858724112</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>296</v>
+      </c>
+      <c r="J65" t="n">
+        <v>398</v>
+      </c>
+      <c r="K65" t="n">
+        <v>45.13510056774696</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4281379278.382922</v>
+        <v>5208979948.25981</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1524057970386519</v>
+        <v>0.1131632628466405</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03112224550727141</v>
+        <v>0.03862606202829691</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>197</v>
+      </c>
+      <c r="J66" t="n">
+        <v>399</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2220952256.232686</v>
+        <v>2615280235.170451</v>
       </c>
       <c r="F67" t="n">
-        <v>0.077965592360275</v>
+        <v>0.07569413469778326</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03145282505238039</v>
+        <v>0.03760990675266412</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4579698718.395675</v>
+        <v>4645340286.078042</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1591316061477829</v>
+        <v>0.1038570401409144</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03331198436323819</v>
+        <v>0.03852136194001235</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>217</v>
+      </c>
+      <c r="J68" t="n">
+        <v>399</v>
+      </c>
+      <c r="K68" t="n">
+        <v>48.14487717602583</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1954711567.497254</v>
+        <v>2158585977.169437</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1263626786541573</v>
+        <v>0.1772857975546978</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04057293480475264</v>
+        <v>0.05000998903077841</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3067641858.310421</v>
+        <v>2531542788.739547</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06234533043675253</v>
+        <v>0.0698606437810394</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03382555718450835</v>
+        <v>0.04366550600290867</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5638204142.704735</v>
+        <v>3787952292.890991</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1405559265781433</v>
+        <v>0.176095348514144</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02973804359657762</v>
+        <v>0.02245238477230778</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>283</v>
+      </c>
+      <c r="J71" t="n">
+        <v>398</v>
+      </c>
+      <c r="K71" t="n">
+        <v>45.94544911892407</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2276023624.355317</v>
+        <v>2016821921.317896</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1058895093492461</v>
+        <v>0.08435877546168158</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05219964596228636</v>
+        <v>0.03914423222484971</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2622667975.319206</v>
+        <v>2979739792.777236</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08963425070675195</v>
+        <v>0.08554723406031478</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03419036895097077</v>
+        <v>0.04502665127066113</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3804988531.31851</v>
+        <v>3156291257.023067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1242725155672652</v>
+        <v>0.1469892957956196</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02334931221639444</v>
+        <v>0.02453227270631855</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2235314039.357947</v>
+        <v>2490626693.389369</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1016900519222551</v>
+        <v>0.1352216758731946</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02346085025467519</v>
+        <v>0.02497123668128098</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4514502549.147798</v>
+        <v>3269881567.893121</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1175120342731186</v>
+        <v>0.08413737911059342</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03125726741502381</v>
+        <v>0.02635506024043763</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>189</v>
+      </c>
+      <c r="J76" t="n">
+        <v>398</v>
+      </c>
+      <c r="K76" t="n">
+        <v>39.03886765573543</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1818294640.461294</v>
+        <v>1847958187.830135</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1764730161771847</v>
+        <v>0.1436936507974355</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02219460963622675</v>
+        <v>0.02522797086010997</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3145869636.804205</v>
+        <v>3732397572.063407</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1310248079195836</v>
+        <v>0.1081211323047609</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04370966123031172</v>
+        <v>0.03774865772064347</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>198</v>
+      </c>
+      <c r="J78" t="n">
+        <v>399</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1262781196.796362</v>
+        <v>1425853375.631361</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1675028926455232</v>
+        <v>0.1585354787276339</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03049756926061577</v>
+        <v>0.03428470715726974</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5627361381.339655</v>
+        <v>3966262070.644921</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08067535908613563</v>
+        <v>0.08508331205378825</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03614921490381993</v>
+        <v>0.028737167891473</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>195</v>
+      </c>
+      <c r="J80" t="n">
+        <v>398</v>
+      </c>
+      <c r="K80" t="n">
+        <v>39.83822750838877</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4090057934.825059</v>
+        <v>3649314209.939949</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1275727170076904</v>
+        <v>0.1233359760599678</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02346075405081301</v>
+        <v>0.02092400684122093</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>186</v>
+      </c>
+      <c r="J81" t="n">
+        <v>398</v>
+      </c>
+      <c r="K81" t="n">
+        <v>47.30186489584448</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4527873370.82304</v>
+        <v>4057506271.812039</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1662418542605284</v>
+        <v>0.1367790509697147</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02142407244615983</v>
+        <v>0.02445114155310846</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>273</v>
+      </c>
+      <c r="J82" t="n">
+        <v>399</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2073757095.116228</v>
+        <v>2098433295.659792</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1199928029896482</v>
+        <v>0.1197021969864298</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04021194035674992</v>
+        <v>0.03534239204245524</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1625139276.605615</v>
+        <v>1861516213.811154</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08081907621227523</v>
+        <v>0.0774266600017274</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03545485229418857</v>
+        <v>0.0523405948191543</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2417271250.866575</v>
+        <v>2545435901.029322</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1814348025897353</v>
+        <v>0.1478970673338396</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05682297196964231</v>
+        <v>0.03989663633810697</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2563755052.666279</v>
+        <v>2178704464.631428</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1480505317001792</v>
+        <v>0.1510964188862992</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02747984420611085</v>
+        <v>0.02498308703292301</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1131757854.200211</v>
+        <v>1147281797.526314</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114915190498563</v>
+        <v>0.1815789832249193</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03890061231356388</v>
+        <v>0.04087624580877551</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2338635098.534569</v>
+        <v>3436235105.852757</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1416356052473195</v>
+        <v>0.1683587537874583</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03825877083087068</v>
+        <v>0.03466645672494651</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2637743141.815064</v>
+        <v>3224216914.633391</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1491656462595498</v>
+        <v>0.101977108374851</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03353381488940118</v>
+        <v>0.02978869009019506</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1384300726.905176</v>
+        <v>1348181665.743542</v>
       </c>
       <c r="F90" t="n">
-        <v>0.106957433275164</v>
+        <v>0.09781543704935097</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03507653070129083</v>
+        <v>0.05555052763507603</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1582881767.332361</v>
+        <v>1587000196.487847</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1709845218941044</v>
+        <v>0.1863648450738326</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04601208401901779</v>
+        <v>0.05551772823302481</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2760350906.728369</v>
+        <v>2223596936.561841</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08175309900012091</v>
+        <v>0.08801315662860591</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04698896124577855</v>
+        <v>0.04565075067684861</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5046236831.801821</v>
+        <v>4538135003.157845</v>
       </c>
       <c r="F93" t="n">
-        <v>0.105541601692284</v>
+        <v>0.09999068746500958</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05228801180022354</v>
+        <v>0.04377750051734914</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>190</v>
+      </c>
+      <c r="J93" t="n">
+        <v>399</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2335818103.036943</v>
+        <v>2194173434.970291</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1528236008130245</v>
+        <v>0.143565658183873</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03509903555893525</v>
+        <v>0.03831620643767401</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2724278778.263123</v>
+        <v>1981293888.379458</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1286368047948878</v>
+        <v>0.1024420489032737</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05131135959341184</v>
+        <v>0.05244908546955297</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2194810904.139247</v>
+        <v>1734771388.250225</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1399223059288004</v>
+        <v>0.14011614889987</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04634424752739863</v>
+        <v>0.03415243085313521</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4303731614.152277</v>
+        <v>5056479257.873546</v>
       </c>
       <c r="F97" t="n">
-        <v>0.169677478733328</v>
+        <v>0.1314583502686627</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02595169543988006</v>
+        <v>0.02913457079115953</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>208</v>
+      </c>
+      <c r="J97" t="n">
+        <v>398</v>
+      </c>
+      <c r="K97" t="n">
+        <v>47.31443241891424</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2397236360.710487</v>
+        <v>3290838693.724042</v>
       </c>
       <c r="F98" t="n">
-        <v>0.111818852650037</v>
+        <v>0.09656913242232132</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01980773444754633</v>
+        <v>0.02779961647627774</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>102</v>
+      </c>
+      <c r="J98" t="n">
+        <v>399</v>
+      </c>
+      <c r="K98" t="n">
+        <v>47.99597196753923</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2593865801.27102</v>
+        <v>2347992559.036358</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09448223579853414</v>
+        <v>0.1014042658990431</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03099430941345839</v>
+        <v>0.03257120010550803</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4347412843.340473</v>
+        <v>3139274952.675731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1177287553127913</v>
+        <v>0.1637661574961835</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01989393360349134</v>
+        <v>0.02583614018025713</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>185</v>
+      </c>
+      <c r="J100" t="n">
+        <v>397</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2779989180.859514</v>
+        <v>2797811534.667601</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1993695386245604</v>
+        <v>0.1621272822120683</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03937858158603291</v>
+        <v>0.04883085080178158</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
